--- a/Common/시퀀스 다이어그램.xlsx
+++ b/Common/시퀀스 다이어그램.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="게임 찾기 요청" sheetId="9" r:id="rId1"/>
-    <sheet name="로비 채팅" sheetId="8" r:id="rId2"/>
-    <sheet name="로비 입장" sheetId="7" r:id="rId3"/>
-    <sheet name="게임 서버 입장" sheetId="4" r:id="rId4"/>
-    <sheet name="로그인" sheetId="2" r:id="rId5"/>
-    <sheet name="기본 틀" sheetId="1" r:id="rId6"/>
-    <sheet name="하트 비트" sheetId="10" r:id="rId7"/>
+    <sheet name="로비 이동" sheetId="12" r:id="rId2"/>
+    <sheet name="로비 채팅" sheetId="8" r:id="rId3"/>
+    <sheet name="로비 입장" sheetId="7" r:id="rId4"/>
+    <sheet name="게임 서버 입장" sheetId="4" r:id="rId5"/>
+    <sheet name="로그인" sheetId="2" r:id="rId6"/>
+    <sheet name="기본 틀" sheetId="1" r:id="rId7"/>
+    <sheet name="하트 비트" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -217,8 +218,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1117386" y="301112"/>
-          <a:ext cx="1386251" cy="7139123"/>
+          <a:off x="1124486" y="304070"/>
+          <a:ext cx="1400450" cy="7242656"/>
           <a:chOff x="1117386" y="301112"/>
           <a:chExt cx="1386251" cy="7139123"/>
         </a:xfrm>
@@ -581,15 +582,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>194822</xdr:colOff>
+      <xdr:colOff>87148</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:rowOff>78094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>220358</xdr:colOff>
+      <xdr:colOff>112684</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>131445</xdr:rowOff>
+      <xdr:rowOff>73467</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -598,8 +599,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11080536" y="340179"/>
-          <a:ext cx="1386251" cy="7139123"/>
+          <a:off x="11086452" y="285159"/>
+          <a:ext cx="1400449" cy="7242656"/>
           <a:chOff x="1117386" y="301112"/>
           <a:chExt cx="1386251" cy="7139123"/>
         </a:xfrm>
@@ -927,6 +928,299 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6287577" y="307346"/>
+          <a:ext cx="1447086" cy="1399921"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>97005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>462566</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>187944</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1122829" y="306555"/>
+          <a:ext cx="1397137" cy="1348239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1082348" cy="402803"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1423554" y="1762991"/>
+          <a:ext cx="1082348" cy="402803"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400"/>
+            <a:t>클라이언트</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>370609</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>128155</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="943400" cy="402803"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6542809" y="1804555"/>
+          <a:ext cx="943400" cy="402803"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400"/>
+            <a:t>게임</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400"/>
+            <a:t>서버</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>682335</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685016</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>92378</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="직선 연결선 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2053935" y="2266949"/>
+          <a:ext cx="2681" cy="5369229"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>115164</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>158460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>117845</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>79389</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="직선 연결선 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6973164" y="2253960"/>
+          <a:ext cx="2681" cy="5369229"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>115377</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>97796</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190863</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>30867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="그림 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -1036,8 +1330,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1117386" y="301112"/>
-          <a:ext cx="1386251" cy="7139123"/>
+          <a:off x="1122829" y="306555"/>
+          <a:ext cx="1397137" cy="7329623"/>
           <a:chOff x="1117386" y="301112"/>
           <a:chExt cx="1386251" cy="7139123"/>
         </a:xfrm>
@@ -1408,8 +1702,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11012500" y="208583"/>
-          <a:ext cx="1777291" cy="7139123"/>
+          <a:off x="11099586" y="214026"/>
+          <a:ext cx="1788176" cy="7324180"/>
           <a:chOff x="1117386" y="301112"/>
           <a:chExt cx="1777291" cy="7139123"/>
         </a:xfrm>
@@ -1620,7 +1914,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1746,8 +2040,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1117386" y="301112"/>
-          <a:ext cx="1386251" cy="7139123"/>
+          <a:off x="1122829" y="306555"/>
+          <a:ext cx="1397137" cy="7329623"/>
           <a:chOff x="1117386" y="301112"/>
           <a:chExt cx="1386251" cy="7139123"/>
         </a:xfrm>
@@ -2128,8 +2422,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11012500" y="208583"/>
-          <a:ext cx="1777291" cy="7139123"/>
+          <a:off x="11099586" y="214026"/>
+          <a:ext cx="1788176" cy="7324180"/>
           <a:chOff x="1117386" y="301112"/>
           <a:chExt cx="1777291" cy="7139123"/>
         </a:xfrm>
@@ -2340,7 +2634,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2606,8 +2900,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11222769" y="339798"/>
-          <a:ext cx="1360002" cy="7013024"/>
+          <a:off x="11273996" y="348603"/>
+          <a:ext cx="1366405" cy="7312381"/>
           <a:chOff x="11610172" y="303780"/>
           <a:chExt cx="1366405" cy="7312381"/>
         </a:xfrm>
@@ -2967,14 +3261,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>324971</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2983,7 +3277,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6970059" y="3417794"/>
+          <a:off x="6970059" y="4538382"/>
           <a:ext cx="4975412" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3014,8 +3308,8 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>641386</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>118783</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>174812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1320426" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -3025,7 +3319,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8844092" y="3525371"/>
+          <a:off x="8844092" y="4645959"/>
           <a:ext cx="1320426" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3067,14 +3361,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>611841</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>197223</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>40340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>118783</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>197223</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>40340</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3083,7 +3377,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1978959" y="3816723"/>
+          <a:off x="1978959" y="4937311"/>
           <a:ext cx="4975412" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3114,8 +3408,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>435198</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>91888</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>147917</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1228926" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -3125,7 +3419,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3852992" y="3924300"/>
+          <a:off x="3852992" y="5044888"/>
           <a:ext cx="1228926" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3166,7 +3460,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3468,8 +3762,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12470408" y="398883"/>
-          <a:ext cx="1360003" cy="7009312"/>
+          <a:off x="12528038" y="407688"/>
+          <a:ext cx="1366406" cy="7317474"/>
           <a:chOff x="12259094" y="407688"/>
           <a:chExt cx="1366406" cy="7317474"/>
         </a:xfrm>
@@ -3784,15 +4078,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>145677</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:colOff>117102</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>144555</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>235323</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:colOff>206748</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>144555</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3801,8 +4095,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7664824" y="4056529"/>
-          <a:ext cx="5558117" cy="0"/>
+          <a:off x="7660902" y="5383305"/>
+          <a:ext cx="5576046" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3831,9 +4125,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>415789</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>99681</xdr:rowOff>
+      <xdr:colOff>387214</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23481</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1233928" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -3843,7 +4137,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9985613" y="4145005"/>
+          <a:off x="9988414" y="5471781"/>
           <a:ext cx="1233928" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3882,16 +4176,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>17930</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>174811</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>675155</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>107576</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>174811</xdr:rowOff>
+      <xdr:colOff>79001</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3900,8 +4194,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2068606" y="4645958"/>
-          <a:ext cx="5558117" cy="0"/>
+          <a:off x="2046755" y="5966011"/>
+          <a:ext cx="5576046" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3930,9 +4224,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>288042</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>50375</xdr:rowOff>
+      <xdr:colOff>259467</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>183725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="693267" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -3942,7 +4236,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4389395" y="4734434"/>
+          <a:off x="4374267" y="6051125"/>
           <a:ext cx="693267" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3979,10 +4273,246 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2438553" cy="580159"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14042651" y="4073899"/>
+          <a:ext cx="2438553" cy="580159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1. MongoDB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>에서</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> 유저 정보 확인하고</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>2. Redis</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>에 토큰값 등록</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>서버 정보</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10553700" y="5876925"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="921855" cy="336246"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257675" y="6400800"/>
+          <a:ext cx="921855" cy="336246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>인증키 발급</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>235322</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2004908" cy="336246"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="918881" y="8348384"/>
+          <a:ext cx="2004908" cy="336246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>성공하고 나면 서버 상태 확인</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4559,7 +5089,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5314,8 +5844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N19" sqref="N18:N19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5330,8 +5860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5346,8 +5876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5362,8 +5892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5378,8 +5908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5391,6 +5921,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5406,7 +5952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
